--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Agrn-Atp1a3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Agrn-Atp1a3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>38.389227</v>
+        <v>16.1326815</v>
       </c>
       <c r="H2">
-        <v>76.778454</v>
+        <v>32.265363</v>
       </c>
       <c r="I2">
-        <v>0.4452295445267456</v>
+        <v>0.3552239102184613</v>
       </c>
       <c r="J2">
-        <v>0.3751312191747254</v>
+        <v>0.3114989702451305</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.431063</v>
+        <v>0.054366</v>
       </c>
       <c r="N2">
-        <v>1.293189</v>
+        <v>0.108732</v>
       </c>
       <c r="O2">
-        <v>0.01068339889080477</v>
+        <v>0.0008085506103439699</v>
       </c>
       <c r="P2">
-        <v>0.01069009904727195</v>
+        <v>0.000539554671486646</v>
       </c>
       <c r="Q2">
-        <v>16.548175358301</v>
+        <v>0.8770693624290001</v>
       </c>
       <c r="R2">
-        <v>99.28905214980598</v>
+        <v>3.508277449716001</v>
       </c>
       <c r="S2">
-        <v>0.004756564822150545</v>
+        <v>0.0002872165094159085</v>
       </c>
       <c r="T2">
-        <v>0.004010189888701696</v>
+        <v>0.0001680707245590399</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>38.389227</v>
+        <v>16.1326815</v>
       </c>
       <c r="H3">
-        <v>76.778454</v>
+        <v>32.265363</v>
       </c>
       <c r="I3">
-        <v>0.4452295445267456</v>
+        <v>0.3552239102184613</v>
       </c>
       <c r="J3">
-        <v>0.3751312191747254</v>
+        <v>0.3114989702451305</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.65163266666666</v>
+        <v>0.431063</v>
       </c>
       <c r="N3">
-        <v>55.95489799999999</v>
+        <v>1.293189</v>
       </c>
       <c r="O3">
-        <v>0.46225918657543</v>
+        <v>0.006410923219414757</v>
       </c>
       <c r="P3">
-        <v>0.4625490951438646</v>
+        <v>0.006417118843258142</v>
       </c>
       <c r="Q3">
-        <v>716.0217603612818</v>
+        <v>6.9542020854345</v>
       </c>
       <c r="R3">
-        <v>4296.130562167691</v>
+        <v>41.725212512607</v>
       </c>
       <c r="S3">
-        <v>0.2058114470922826</v>
+        <v>0.002277313214110836</v>
       </c>
       <c r="T3">
-        <v>0.173516605989484</v>
+        <v>0.001998925911615534</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>38.389227</v>
+        <v>16.1326815</v>
       </c>
       <c r="H4">
-        <v>76.778454</v>
+        <v>32.265363</v>
       </c>
       <c r="I4">
-        <v>0.4452295445267456</v>
+        <v>0.3552239102184613</v>
       </c>
       <c r="J4">
-        <v>0.3751312191747254</v>
+        <v>0.3114989702451305</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0758675</v>
+        <v>17.82870133333333</v>
       </c>
       <c r="N4">
-        <v>0.151735</v>
+        <v>53.486104</v>
       </c>
       <c r="O4">
-        <v>0.001880288415726079</v>
+        <v>0.2651548273683371</v>
       </c>
       <c r="P4">
-        <v>0.001254311766445438</v>
+        <v>0.2654110774456516</v>
       </c>
       <c r="Q4">
-        <v>2.9124946794225</v>
+        <v>287.624760169292</v>
       </c>
       <c r="R4">
-        <v>11.64997871769</v>
+        <v>1725.748561015752</v>
       </c>
       <c r="S4">
-        <v>0.0008371599549126381</v>
+        <v>0.09418933459108177</v>
       </c>
       <c r="T4">
-        <v>0.0004705315021718806</v>
+        <v>0.08267527731597105</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>38.389227</v>
+        <v>16.1326815</v>
       </c>
       <c r="H5">
-        <v>76.778454</v>
+        <v>32.265363</v>
       </c>
       <c r="I5">
-        <v>0.4452295445267456</v>
+        <v>0.3552239102184613</v>
       </c>
       <c r="J5">
-        <v>0.3751312191747254</v>
+        <v>0.3114989702451305</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.131278</v>
+        <v>0.140388</v>
       </c>
       <c r="N5">
-        <v>0.393834</v>
+        <v>0.280776</v>
       </c>
       <c r="O5">
-        <v>0.003253573699406046</v>
+        <v>0.002087900582808542</v>
       </c>
       <c r="P5">
-        <v>0.003255614197293127</v>
+        <v>0.001393278909992776</v>
       </c>
       <c r="Q5">
-        <v>5.039660942106</v>
+        <v>2.264834890422</v>
       </c>
       <c r="R5">
-        <v>30.237965652636</v>
+        <v>9.059339561687999</v>
       </c>
       <c r="S5">
-        <v>0.001448587136270752</v>
+        <v>0.0007416722091726546</v>
       </c>
       <c r="T5">
-        <v>0.001221282522993116</v>
+        <v>0.0004340049457270076</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>38.389227</v>
+        <v>16.1326815</v>
       </c>
       <c r="H6">
-        <v>76.778454</v>
+        <v>32.265363</v>
       </c>
       <c r="I6">
-        <v>0.4452295445267456</v>
+        <v>0.3552239102184613</v>
       </c>
       <c r="J6">
-        <v>0.3751312191747254</v>
+        <v>0.3114989702451305</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,33 +809,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.059022</v>
+        <v>29.21157733333333</v>
       </c>
       <c r="N6">
-        <v>63.177066</v>
+        <v>87.634732</v>
       </c>
       <c r="O6">
-        <v>0.521923552418633</v>
+        <v>0.4344450333292268</v>
       </c>
       <c r="P6">
-        <v>0.5222508798451249</v>
+        <v>0.4348648883040896</v>
       </c>
       <c r="Q6">
-        <v>808.4395759559939</v>
+        <v>471.261073231286</v>
       </c>
       <c r="R6">
-        <v>4850.637455735963</v>
+        <v>2827.566439387716</v>
       </c>
       <c r="S6">
-        <v>0.232375785521129</v>
+        <v>0.1543252635141977</v>
       </c>
       <c r="T6">
-        <v>0.1959126092713747</v>
+        <v>0.1354599649024876</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,25 +844,25 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.154770000000001</v>
+        <v>16.1326815</v>
       </c>
       <c r="H7">
-        <v>9.464310000000001</v>
+        <v>32.265363</v>
       </c>
       <c r="I7">
-        <v>0.03658830666704076</v>
+        <v>0.3552239102184613</v>
       </c>
       <c r="J7">
-        <v>0.04624159466596638</v>
+        <v>0.3114989702451305</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.431063</v>
+        <v>19.572738</v>
       </c>
       <c r="N7">
-        <v>1.293189</v>
+        <v>58.718214</v>
       </c>
       <c r="O7">
-        <v>0.01068339889080477</v>
+        <v>0.2910927648898688</v>
       </c>
       <c r="P7">
-        <v>0.01069009904727195</v>
+        <v>0.2913740818255213</v>
       </c>
       <c r="Q7">
-        <v>1.35990462051</v>
+        <v>315.760748236947</v>
       </c>
       <c r="R7">
-        <v>12.23914158459</v>
+        <v>1894.564489421682</v>
       </c>
       <c r="S7">
-        <v>0.000390887474863088</v>
+        <v>0.1034031101804824</v>
       </c>
       <c r="T7">
-        <v>0.0004943272270829829</v>
+        <v>0.09076272644477028</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>9.464310000000001</v>
       </c>
       <c r="I8">
-        <v>0.03658830666704076</v>
+        <v>0.06946456701819194</v>
       </c>
       <c r="J8">
-        <v>0.04624159466596638</v>
+        <v>0.09137113439823044</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.65163266666666</v>
+        <v>0.054366</v>
       </c>
       <c r="N8">
-        <v>55.95489799999999</v>
+        <v>0.108732</v>
       </c>
       <c r="O8">
-        <v>0.46225918657543</v>
+        <v>0.0008085506103439699</v>
       </c>
       <c r="P8">
-        <v>0.4625490951438646</v>
+        <v>0.000539554671486646</v>
       </c>
       <c r="Q8">
-        <v>58.84161118782</v>
+        <v>0.17151222582</v>
       </c>
       <c r="R8">
-        <v>529.57450069038</v>
+        <v>1.02907335492</v>
       </c>
       <c r="S8">
-        <v>0.01691328087807865</v>
+        <v>5.61656180598387E-05</v>
       </c>
       <c r="T8">
-        <v>0.02138900777075211</v>
+        <v>4.929972240359941E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>9.464310000000001</v>
       </c>
       <c r="I9">
-        <v>0.03658830666704076</v>
+        <v>0.06946456701819194</v>
       </c>
       <c r="J9">
-        <v>0.04624159466596638</v>
+        <v>0.09137113439823044</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.0758675</v>
+        <v>0.431063</v>
       </c>
       <c r="N9">
-        <v>0.151735</v>
+        <v>1.293189</v>
       </c>
       <c r="O9">
-        <v>0.001880288415726079</v>
+        <v>0.006410923219414757</v>
       </c>
       <c r="P9">
-        <v>0.001254311766445438</v>
+        <v>0.006417118843258142</v>
       </c>
       <c r="Q9">
-        <v>0.2393445129750001</v>
+        <v>1.35990462051</v>
       </c>
       <c r="R9">
-        <v>1.43606707785</v>
+        <v>12.23914158459</v>
       </c>
       <c r="S9">
-        <v>6.879656917707001E-05</v>
+        <v>0.0004453320056235192</v>
       </c>
       <c r="T9">
-        <v>5.800137628872224E-05</v>
+        <v>0.0005863394282767567</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>9.464310000000001</v>
       </c>
       <c r="I10">
-        <v>0.03658830666704076</v>
+        <v>0.06946456701819194</v>
       </c>
       <c r="J10">
-        <v>0.04624159466596638</v>
+        <v>0.09137113439823044</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.131278</v>
+        <v>17.82870133333333</v>
       </c>
       <c r="N10">
-        <v>0.393834</v>
+        <v>53.486104</v>
       </c>
       <c r="O10">
-        <v>0.003253573699406046</v>
+        <v>0.2651548273683371</v>
       </c>
       <c r="P10">
-        <v>0.003255614197293127</v>
+        <v>0.2654110774456516</v>
       </c>
       <c r="Q10">
-        <v>0.4141518960600001</v>
+        <v>56.24545210536</v>
       </c>
       <c r="R10">
-        <v>3.727367064540001</v>
+        <v>506.20906894824</v>
       </c>
       <c r="S10">
-        <v>0.0001190427522776867</v>
+        <v>0.01841886527592496</v>
       </c>
       <c r="T10">
-        <v>0.0001505447920999943</v>
+        <v>0.02425091122806578</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>9.464310000000001</v>
       </c>
       <c r="I11">
-        <v>0.03658830666704076</v>
+        <v>0.06946456701819194</v>
       </c>
       <c r="J11">
-        <v>0.04624159466596638</v>
+        <v>0.09137113439823044</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.059022</v>
+        <v>0.140388</v>
       </c>
       <c r="N11">
-        <v>63.177066</v>
+        <v>0.280776</v>
       </c>
       <c r="O11">
-        <v>0.521923552418633</v>
+        <v>0.002087900582808542</v>
       </c>
       <c r="P11">
-        <v>0.5222508798451249</v>
+        <v>0.001393278909992776</v>
       </c>
       <c r="Q11">
-        <v>66.43637083494001</v>
+        <v>0.44289185076</v>
       </c>
       <c r="R11">
-        <v>597.9273375144601</v>
+        <v>2.65735110456</v>
       </c>
       <c r="S11">
-        <v>0.01909629899264427</v>
+        <v>0.000145035109961826</v>
       </c>
       <c r="T11">
-        <v>0.02414971349974258</v>
+        <v>0.00012730547453917</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.963441333333333</v>
+        <v>3.154770000000001</v>
       </c>
       <c r="H12">
-        <v>8.890324</v>
+        <v>9.464310000000001</v>
       </c>
       <c r="I12">
-        <v>0.03436932020203824</v>
+        <v>0.06946456701819194</v>
       </c>
       <c r="J12">
-        <v>0.04343716117256439</v>
+        <v>0.09137113439823044</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,33 +1181,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.431063</v>
+        <v>29.21157733333333</v>
       </c>
       <c r="N12">
-        <v>1.293189</v>
+        <v>87.634732</v>
       </c>
       <c r="O12">
-        <v>0.01068339889080477</v>
+        <v>0.4344450333292268</v>
       </c>
       <c r="P12">
-        <v>0.01069009904727195</v>
+        <v>0.4348648883040896</v>
       </c>
       <c r="Q12">
-        <v>1.277429911470667</v>
+        <v>92.15580782388002</v>
       </c>
       <c r="R12">
-        <v>11.496869203236</v>
+        <v>829.4022704149201</v>
       </c>
       <c r="S12">
-        <v>0.0003671811573241692</v>
+        <v>0.03017853613341871</v>
       </c>
       <c r="T12">
-        <v>0.0004643475552670287</v>
+        <v>0.03973409815430444</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.963441333333333</v>
+        <v>3.154770000000001</v>
       </c>
       <c r="H13">
-        <v>8.890324</v>
+        <v>9.464310000000001</v>
       </c>
       <c r="I13">
-        <v>0.03436932020203824</v>
+        <v>0.06946456701819194</v>
       </c>
       <c r="J13">
-        <v>0.04343716117256439</v>
+        <v>0.09137113439823044</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>18.65163266666666</v>
+        <v>19.572738</v>
       </c>
       <c r="N13">
-        <v>55.95489799999999</v>
+        <v>58.718214</v>
       </c>
       <c r="O13">
-        <v>0.46225918657543</v>
+        <v>0.2910927648898688</v>
       </c>
       <c r="P13">
-        <v>0.4625490951438646</v>
+        <v>0.2913740818255213</v>
       </c>
       <c r="Q13">
-        <v>55.27301917855021</v>
+        <v>61.74748666026</v>
       </c>
       <c r="R13">
-        <v>497.4571726069519</v>
+        <v>555.72737994234</v>
       </c>
       <c r="S13">
-        <v>0.01588753399974469</v>
+        <v>0.02022063287520308</v>
       </c>
       <c r="T13">
-        <v>0.02009181959598787</v>
+        <v>0.0266231803906407</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.963441333333333</v>
+        <v>3.114747</v>
       </c>
       <c r="H14">
-        <v>8.890324</v>
+        <v>9.344241</v>
       </c>
       <c r="I14">
-        <v>0.03436932020203824</v>
+        <v>0.06858330455982917</v>
       </c>
       <c r="J14">
-        <v>0.04343716117256439</v>
+        <v>0.09021195420061844</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.0758675</v>
+        <v>0.054366</v>
       </c>
       <c r="N14">
-        <v>0.151735</v>
+        <v>0.108732</v>
       </c>
       <c r="O14">
-        <v>0.001880288415726079</v>
+        <v>0.0008085506103439699</v>
       </c>
       <c r="P14">
-        <v>0.001254311766445438</v>
+        <v>0.000539554671486646</v>
       </c>
       <c r="Q14">
-        <v>0.2248288853566667</v>
+        <v>0.169336335402</v>
       </c>
       <c r="R14">
-        <v>1.34897331214</v>
+        <v>1.016018012412</v>
       </c>
       <c r="S14">
-        <v>6.46242346322728E-05</v>
+        <v>5.545307276125625E-05</v>
       </c>
       <c r="T14">
-        <v>5.448374235973443E-05</v>
+        <v>4.867428131288304E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.963441333333333</v>
+        <v>3.114747</v>
       </c>
       <c r="H15">
-        <v>8.890324</v>
+        <v>9.344241</v>
       </c>
       <c r="I15">
-        <v>0.03436932020203824</v>
+        <v>0.06858330455982917</v>
       </c>
       <c r="J15">
-        <v>0.04343716117256439</v>
+        <v>0.09021195420061844</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.131278</v>
+        <v>0.431063</v>
       </c>
       <c r="N15">
-        <v>0.393834</v>
+        <v>1.293189</v>
       </c>
       <c r="O15">
-        <v>0.003253573699406046</v>
+        <v>0.006410923219414757</v>
       </c>
       <c r="P15">
-        <v>0.003255614197293127</v>
+        <v>0.006417118843258142</v>
       </c>
       <c r="Q15">
-        <v>0.3890346513573333</v>
+        <v>1.342652186061</v>
       </c>
       <c r="R15">
-        <v>3.501311862216</v>
+        <v>12.083869674549</v>
       </c>
       <c r="S15">
-        <v>0.0001118231162758165</v>
+        <v>0.0004396822996668028</v>
       </c>
       <c r="T15">
-        <v>0.0001414146386035104</v>
+        <v>0.0005789008311879291</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.963441333333333</v>
+        <v>3.114747</v>
       </c>
       <c r="H16">
-        <v>8.890324</v>
+        <v>9.344241</v>
       </c>
       <c r="I16">
-        <v>0.03436932020203824</v>
+        <v>0.06858330455982917</v>
       </c>
       <c r="J16">
-        <v>0.04343716117256439</v>
+        <v>0.09021195420061844</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,95 +1429,95 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.059022</v>
+        <v>17.82870133333333</v>
       </c>
       <c r="N16">
-        <v>63.177066</v>
+        <v>53.486104</v>
       </c>
       <c r="O16">
-        <v>0.521923552418633</v>
+        <v>0.2651548273683371</v>
       </c>
       <c r="P16">
-        <v>0.5222508798451249</v>
+        <v>0.2654110774456516</v>
       </c>
       <c r="Q16">
-        <v>62.407176234376</v>
+        <v>55.53189399189599</v>
       </c>
       <c r="R16">
-        <v>561.664586109384</v>
+        <v>499.787045927064</v>
       </c>
       <c r="S16">
-        <v>0.01793815769406128</v>
+        <v>0.01818519428091159</v>
       </c>
       <c r="T16">
-        <v>0.02268509564034625</v>
+        <v>0.02394325196286391</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
       <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3.114747</v>
+      </c>
+      <c r="H17">
+        <v>9.344241</v>
+      </c>
+      <c r="I17">
+        <v>0.06858330455982917</v>
+      </c>
+      <c r="J17">
+        <v>0.09021195420061844</v>
+      </c>
+      <c r="K17">
         <v>2</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>15.6101945</v>
-      </c>
-      <c r="H17">
-        <v>31.220389</v>
-      </c>
-      <c r="I17">
-        <v>0.1810434939783734</v>
-      </c>
-      <c r="J17">
-        <v>0.1525394427540725</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.431063</v>
+        <v>0.140388</v>
       </c>
       <c r="N17">
-        <v>1.293189</v>
+        <v>0.280776</v>
       </c>
       <c r="O17">
-        <v>0.01068339889080477</v>
+        <v>0.002087900582808542</v>
       </c>
       <c r="P17">
-        <v>0.01069009904727195</v>
+        <v>0.001393278909992776</v>
       </c>
       <c r="Q17">
-        <v>6.7289772717535</v>
+        <v>0.4372731018359999</v>
       </c>
       <c r="R17">
-        <v>40.373863630521</v>
+        <v>2.623638611016</v>
       </c>
       <c r="S17">
-        <v>0.001934159862755974</v>
+        <v>0.0001431951215614031</v>
       </c>
       <c r="T17">
-        <v>0.001630661751656704</v>
+        <v>0.0001256904132169559</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,25 +1526,25 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>15.6101945</v>
+        <v>3.114747</v>
       </c>
       <c r="H18">
-        <v>31.220389</v>
+        <v>9.344241</v>
       </c>
       <c r="I18">
-        <v>0.1810434939783734</v>
+        <v>0.06858330455982917</v>
       </c>
       <c r="J18">
-        <v>0.1525394427540725</v>
+        <v>0.09021195420061844</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,33 +1553,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>18.65163266666666</v>
+        <v>29.21157733333333</v>
       </c>
       <c r="N18">
-        <v>55.95489799999999</v>
+        <v>87.634732</v>
       </c>
       <c r="O18">
-        <v>0.46225918657543</v>
+        <v>0.4344450333292268</v>
       </c>
       <c r="P18">
-        <v>0.4625490951438646</v>
+        <v>0.4348648883040896</v>
       </c>
       <c r="Q18">
-        <v>291.1556136692203</v>
+        <v>90.986672864268</v>
       </c>
       <c r="R18">
-        <v>1746.933682015322</v>
+        <v>818.880055778412</v>
       </c>
       <c r="S18">
-        <v>0.08368901826121666</v>
+        <v>0.02979567603532349</v>
       </c>
       <c r="T18">
-        <v>0.07055698121964556</v>
+        <v>0.03923001138714558</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>15.6101945</v>
+        <v>3.114747</v>
       </c>
       <c r="H19">
-        <v>31.220389</v>
+        <v>9.344241</v>
       </c>
       <c r="I19">
-        <v>0.1810434939783734</v>
+        <v>0.06858330455982917</v>
       </c>
       <c r="J19">
-        <v>0.1525394427540725</v>
+        <v>0.09021195420061844</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.0758675</v>
+        <v>19.572738</v>
       </c>
       <c r="N19">
-        <v>0.151735</v>
+        <v>58.718214</v>
       </c>
       <c r="O19">
-        <v>0.001880288415726079</v>
+        <v>0.2910927648898688</v>
       </c>
       <c r="P19">
-        <v>0.001254311766445438</v>
+        <v>0.2913740818255213</v>
       </c>
       <c r="Q19">
-        <v>1.18430643122875</v>
+        <v>60.96412696728599</v>
       </c>
       <c r="R19">
-        <v>4.737225724915001</v>
+        <v>548.6771427055739</v>
       </c>
       <c r="S19">
-        <v>0.0003404139844701096</v>
+        <v>0.01996410374960462</v>
       </c>
       <c r="T19">
-        <v>0.0001913320178934634</v>
+        <v>0.02628542532489117</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>15.6101945</v>
+        <v>16.532941</v>
       </c>
       <c r="H20">
-        <v>31.220389</v>
+        <v>33.065882</v>
       </c>
       <c r="I20">
-        <v>0.1810434939783734</v>
+        <v>0.3640371843596564</v>
       </c>
       <c r="J20">
-        <v>0.1525394427540725</v>
+        <v>0.3192274078319527</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.131278</v>
+        <v>0.054366</v>
       </c>
       <c r="N20">
-        <v>0.393834</v>
+        <v>0.108732</v>
       </c>
       <c r="O20">
-        <v>0.003253573699406046</v>
+        <v>0.0008085506103439699</v>
       </c>
       <c r="P20">
-        <v>0.003255614197293127</v>
+        <v>0.000539554671486646</v>
       </c>
       <c r="Q20">
-        <v>2.049275113571</v>
+        <v>0.8988298704060002</v>
       </c>
       <c r="R20">
-        <v>12.295650681426</v>
+        <v>3.595319481624001</v>
       </c>
       <c r="S20">
-        <v>0.0005890383504566126</v>
+        <v>0.0002943424876019005</v>
       </c>
       <c r="T20">
-        <v>0.0004966095754773405</v>
+        <v>0.0001722406391623029</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>15.6101945</v>
+        <v>16.532941</v>
       </c>
       <c r="H21">
-        <v>31.220389</v>
+        <v>33.065882</v>
       </c>
       <c r="I21">
-        <v>0.1810434939783734</v>
+        <v>0.3640371843596564</v>
       </c>
       <c r="J21">
-        <v>0.1525394427540725</v>
+        <v>0.3192274078319527</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,33 +1739,33 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>21.059022</v>
+        <v>0.431063</v>
       </c>
       <c r="N21">
-        <v>63.177066</v>
+        <v>1.293189</v>
       </c>
       <c r="O21">
-        <v>0.521923552418633</v>
+        <v>0.006410923219414757</v>
       </c>
       <c r="P21">
-        <v>0.5222508798451249</v>
+        <v>0.006417118843258142</v>
       </c>
       <c r="Q21">
-        <v>328.735429399779</v>
+        <v>7.126739146283</v>
       </c>
       <c r="R21">
-        <v>1972.412576398674</v>
+        <v>42.760434877698</v>
       </c>
       <c r="S21">
-        <v>0.09449086351947404</v>
+        <v>0.002333814437941692</v>
       </c>
       <c r="T21">
-        <v>0.0796638581893994</v>
+        <v>0.002048520214082875</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,25 +1774,25 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>18.952291</v>
+        <v>16.532941</v>
       </c>
       <c r="H22">
-        <v>56.85687299999999</v>
+        <v>33.065882</v>
       </c>
       <c r="I22">
-        <v>0.2198043708894774</v>
+        <v>0.3640371843596564</v>
       </c>
       <c r="J22">
-        <v>0.2777965298305241</v>
+        <v>0.3192274078319527</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,33 +1801,33 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.431063</v>
+        <v>17.82870133333333</v>
       </c>
       <c r="N22">
-        <v>1.293189</v>
+        <v>53.486104</v>
       </c>
       <c r="O22">
-        <v>0.01068339889080477</v>
+        <v>0.2651548273683371</v>
       </c>
       <c r="P22">
-        <v>0.01069009904727195</v>
+        <v>0.2654110774456516</v>
       </c>
       <c r="Q22">
-        <v>8.169631415332999</v>
+        <v>294.7608672506213</v>
       </c>
       <c r="R22">
-        <v>73.52668273799699</v>
+        <v>1768.565203503728</v>
       </c>
       <c r="S22">
-        <v>0.002348257772154682</v>
+        <v>0.09652621677454018</v>
       </c>
       <c r="T22">
-        <v>0.00296967241887674</v>
+        <v>0.08472649026286101</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>18.952291</v>
+        <v>16.532941</v>
       </c>
       <c r="H23">
-        <v>56.85687299999999</v>
+        <v>33.065882</v>
       </c>
       <c r="I23">
-        <v>0.2198043708894774</v>
+        <v>0.3640371843596564</v>
       </c>
       <c r="J23">
-        <v>0.2777965298305241</v>
+        <v>0.3192274078319527</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>18.65163266666666</v>
+        <v>0.140388</v>
       </c>
       <c r="N23">
-        <v>55.95489799999999</v>
+        <v>0.280776</v>
       </c>
       <c r="O23">
-        <v>0.46225918657543</v>
+        <v>0.002087900582808542</v>
       </c>
       <c r="P23">
-        <v>0.4625490951438646</v>
+        <v>0.001393278909992776</v>
       </c>
       <c r="Q23">
-        <v>353.4911699237726</v>
+        <v>2.321026521108</v>
       </c>
       <c r="R23">
-        <v>3181.420529313953</v>
+        <v>9.284106084431999</v>
       </c>
       <c r="S23">
-        <v>0.1016065896930939</v>
+        <v>0.0007600734493885074</v>
       </c>
       <c r="T23">
-        <v>0.1284945335072145</v>
+        <v>0.0004447728148239225</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>18.952291</v>
+        <v>16.532941</v>
       </c>
       <c r="H24">
-        <v>56.85687299999999</v>
+        <v>33.065882</v>
       </c>
       <c r="I24">
-        <v>0.2198043708894774</v>
+        <v>0.3640371843596564</v>
       </c>
       <c r="J24">
-        <v>0.2777965298305241</v>
+        <v>0.3192274078319527</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.0758675</v>
+        <v>29.21157733333333</v>
       </c>
       <c r="N24">
-        <v>0.151735</v>
+        <v>87.634732</v>
       </c>
       <c r="O24">
-        <v>0.001880288415726079</v>
+        <v>0.4344450333292268</v>
       </c>
       <c r="P24">
-        <v>0.001254311766445438</v>
+        <v>0.4348648883040896</v>
       </c>
       <c r="Q24">
-        <v>1.4378629374425</v>
+        <v>482.9532845689374</v>
       </c>
       <c r="R24">
-        <v>8.627177624654999</v>
+        <v>2897.719707413624</v>
       </c>
       <c r="S24">
-        <v>0.0004132956123094429</v>
+        <v>0.1581541466922088</v>
       </c>
       <c r="T24">
-        <v>0.0003484434560441376</v>
+        <v>0.1388207910504462</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,25 +1960,25 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>18.952291</v>
+        <v>16.532941</v>
       </c>
       <c r="H25">
-        <v>56.85687299999999</v>
+        <v>33.065882</v>
       </c>
       <c r="I25">
-        <v>0.2198043708894774</v>
+        <v>0.3640371843596564</v>
       </c>
       <c r="J25">
-        <v>0.2777965298305241</v>
+        <v>0.3192274078319527</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.131278</v>
+        <v>19.572738</v>
       </c>
       <c r="N25">
-        <v>0.393834</v>
+        <v>58.718214</v>
       </c>
       <c r="O25">
-        <v>0.003253573699406046</v>
+        <v>0.2910927648898688</v>
       </c>
       <c r="P25">
-        <v>0.003255614197293127</v>
+        <v>0.2913740818255213</v>
       </c>
       <c r="Q25">
-        <v>2.488018857898</v>
+        <v>323.594922562458</v>
       </c>
       <c r="R25">
-        <v>22.392169721082</v>
+        <v>1941.569535374748</v>
       </c>
       <c r="S25">
-        <v>0.0007151497201404955</v>
+        <v>0.1059685905179753</v>
       </c>
       <c r="T25">
-        <v>0.000904398326475018</v>
+        <v>0.09301459285057645</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,51 +2031,51 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>18.952291</v>
+        <v>5.297244</v>
       </c>
       <c r="H26">
-        <v>56.85687299999999</v>
+        <v>15.891732</v>
       </c>
       <c r="I26">
-        <v>0.2198043708894774</v>
+        <v>0.116639489043485</v>
       </c>
       <c r="J26">
-        <v>0.2777965298305241</v>
+        <v>0.1534232902760644</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>21.059022</v>
+        <v>0.054366</v>
       </c>
       <c r="N26">
-        <v>63.177066</v>
+        <v>0.108732</v>
       </c>
       <c r="O26">
-        <v>0.521923552418633</v>
+        <v>0.0008085506103439699</v>
       </c>
       <c r="P26">
-        <v>0.5222508798451249</v>
+        <v>0.000539554671486646</v>
       </c>
       <c r="Q26">
-        <v>399.1167131194019</v>
+        <v>0.287989967304</v>
       </c>
       <c r="R26">
-        <v>3592.050418074617</v>
+        <v>1.727939803824</v>
       </c>
       <c r="S26">
-        <v>0.1147210780917788</v>
+        <v>9.430893005631857E-05</v>
       </c>
       <c r="T26">
-        <v>0.1450794821219137</v>
+        <v>8.278025298330228E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>7.153525333333334</v>
+        <v>5.297244</v>
       </c>
       <c r="H27">
-        <v>21.460576</v>
+        <v>15.891732</v>
       </c>
       <c r="I27">
-        <v>0.08296496373632467</v>
+        <v>0.116639489043485</v>
       </c>
       <c r="J27">
-        <v>0.1048540524021472</v>
+        <v>0.1534232902760644</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,27 +2117,27 @@
         <v>1.293189</v>
       </c>
       <c r="O27">
-        <v>0.01068339889080477</v>
+        <v>0.006410923219414757</v>
       </c>
       <c r="P27">
-        <v>0.01069009904727195</v>
+        <v>0.006417118843258142</v>
       </c>
       <c r="Q27">
-        <v>3.083620090762667</v>
+        <v>2.283445890372</v>
       </c>
       <c r="R27">
-        <v>27.752580816864</v>
+        <v>20.551013013348</v>
       </c>
       <c r="S27">
-        <v>0.0008863478015563087</v>
+        <v>0.000747766808609551</v>
       </c>
       <c r="T27">
-        <v>0.001120900205686797</v>
+        <v>0.0009845354870251968</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>7.153525333333334</v>
+        <v>5.297244</v>
       </c>
       <c r="H28">
-        <v>21.460576</v>
+        <v>15.891732</v>
       </c>
       <c r="I28">
-        <v>0.08296496373632467</v>
+        <v>0.116639489043485</v>
       </c>
       <c r="J28">
-        <v>0.1048540524021472</v>
+        <v>0.1534232902760644</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,33 +2173,33 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>18.65163266666666</v>
+        <v>17.82870133333333</v>
       </c>
       <c r="N28">
-        <v>55.95489799999999</v>
+        <v>53.486104</v>
       </c>
       <c r="O28">
-        <v>0.46225918657543</v>
+        <v>0.2651548273683371</v>
       </c>
       <c r="P28">
-        <v>0.4625490951438646</v>
+        <v>0.2654110774456516</v>
       </c>
       <c r="Q28">
-        <v>133.4249267890276</v>
+        <v>94.44298116579199</v>
       </c>
       <c r="R28">
-        <v>1200.824341101248</v>
+        <v>849.986830492128</v>
       </c>
       <c r="S28">
-        <v>0.03835131665101349</v>
+        <v>0.0309275235816563</v>
       </c>
       <c r="T28">
-        <v>0.04850014706078057</v>
+        <v>0.04072024077742722</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>7.153525333333334</v>
+        <v>5.297244</v>
       </c>
       <c r="H29">
-        <v>21.460576</v>
+        <v>15.891732</v>
       </c>
       <c r="I29">
-        <v>0.08296496373632467</v>
+        <v>0.116639489043485</v>
       </c>
       <c r="J29">
-        <v>0.1048540524021472</v>
+        <v>0.1534232902760644</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,33 +2235,33 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.0758675</v>
+        <v>0.140388</v>
       </c>
       <c r="N29">
-        <v>0.151735</v>
+        <v>0.280776</v>
       </c>
       <c r="O29">
-        <v>0.001880288415726079</v>
+        <v>0.002087900582808542</v>
       </c>
       <c r="P29">
-        <v>0.001254311766445438</v>
+        <v>0.001393278909992776</v>
       </c>
       <c r="Q29">
-        <v>0.5427200832266668</v>
+        <v>0.7436694906719999</v>
       </c>
       <c r="R29">
-        <v>3.25632049936</v>
+        <v>4.462016944031999</v>
       </c>
       <c r="S29">
-        <v>0.0001559980602245455</v>
+        <v>0.0002435316571523829</v>
       </c>
       <c r="T29">
-        <v>0.0001315196716874998</v>
+        <v>0.0002137614346433403</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>7.153525333333334</v>
+        <v>5.297244</v>
       </c>
       <c r="H30">
-        <v>21.460576</v>
+        <v>15.891732</v>
       </c>
       <c r="I30">
-        <v>0.08296496373632467</v>
+        <v>0.116639489043485</v>
       </c>
       <c r="J30">
-        <v>0.1048540524021472</v>
+        <v>0.1534232902760644</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,33 +2297,33 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.131278</v>
+        <v>29.21157733333333</v>
       </c>
       <c r="N30">
-        <v>0.393834</v>
+        <v>87.634732</v>
       </c>
       <c r="O30">
-        <v>0.003253573699406046</v>
+        <v>0.4344450333292268</v>
       </c>
       <c r="P30">
-        <v>0.003255614197293127</v>
+        <v>0.4348648883040896</v>
       </c>
       <c r="Q30">
-        <v>0.9391004987093334</v>
+        <v>154.740852759536</v>
       </c>
       <c r="R30">
-        <v>8.451904488384001</v>
+        <v>1392.667674835824</v>
       </c>
       <c r="S30">
-        <v>0.0002699326239846823</v>
+        <v>0.05067344670500081</v>
       </c>
       <c r="T30">
-        <v>0.0003413643416441481</v>
+        <v>0.06671840198914668</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>7.153525333333334</v>
+        <v>5.297244</v>
       </c>
       <c r="H31">
-        <v>21.460576</v>
+        <v>15.891732</v>
       </c>
       <c r="I31">
-        <v>0.08296496373632467</v>
+        <v>0.116639489043485</v>
       </c>
       <c r="J31">
-        <v>0.1048540524021472</v>
+        <v>0.1534232902760644</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,400 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>21.059022</v>
+        <v>19.572738</v>
       </c>
       <c r="N31">
-        <v>63.177066</v>
+        <v>58.718214</v>
       </c>
       <c r="O31">
-        <v>0.521923552418633</v>
+        <v>0.2910927648898688</v>
       </c>
       <c r="P31">
-        <v>0.5222508798451249</v>
+        <v>0.2913740818255213</v>
       </c>
       <c r="Q31">
-        <v>150.646247372224</v>
+        <v>103.681568934072</v>
       </c>
       <c r="R31">
-        <v>1355.816226350016</v>
+        <v>933.134120406648</v>
       </c>
       <c r="S31">
-        <v>0.04330136859954564</v>
+        <v>0.03395291136100961</v>
       </c>
       <c r="T31">
-        <v>0.05476012112234822</v>
+        <v>0.0447035703348387</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1.183144666666667</v>
+      </c>
+      <c r="H32">
+        <v>3.549434</v>
+      </c>
+      <c r="I32">
+        <v>0.02605154480037626</v>
+      </c>
+      <c r="J32">
+        <v>0.03426724304800335</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.054366</v>
+      </c>
+      <c r="N32">
+        <v>0.108732</v>
+      </c>
+      <c r="O32">
+        <v>0.0008085506103439699</v>
+      </c>
+      <c r="P32">
+        <v>0.000539554671486646</v>
+      </c>
+      <c r="Q32">
+        <v>0.064322842948</v>
+      </c>
+      <c r="R32">
+        <v>0.3859370576880001</v>
+      </c>
+      <c r="S32">
+        <v>2.10639924487475E-05</v>
+      </c>
+      <c r="T32">
+        <v>1.84890510655185E-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1.183144666666667</v>
+      </c>
+      <c r="H33">
+        <v>3.549434</v>
+      </c>
+      <c r="I33">
+        <v>0.02605154480037626</v>
+      </c>
+      <c r="J33">
+        <v>0.03426724304800335</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.431063</v>
+      </c>
+      <c r="N33">
+        <v>1.293189</v>
+      </c>
+      <c r="O33">
+        <v>0.006410923219414757</v>
+      </c>
+      <c r="P33">
+        <v>0.006417118843258142</v>
+      </c>
+      <c r="Q33">
+        <v>0.5100098894473334</v>
+      </c>
+      <c r="R33">
+        <v>4.590089005026</v>
+      </c>
+      <c r="S33">
+        <v>0.000167014453462356</v>
+      </c>
+      <c r="T33">
+        <v>0.0002198969710698489</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1.183144666666667</v>
+      </c>
+      <c r="H34">
+        <v>3.549434</v>
+      </c>
+      <c r="I34">
+        <v>0.02605154480037626</v>
+      </c>
+      <c r="J34">
+        <v>0.03426724304800335</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>17.82870133333333</v>
+      </c>
+      <c r="N34">
+        <v>53.486104</v>
+      </c>
+      <c r="O34">
+        <v>0.2651548273683371</v>
+      </c>
+      <c r="P34">
+        <v>0.2654110774456516</v>
+      </c>
+      <c r="Q34">
+        <v>21.09393289612622</v>
+      </c>
+      <c r="R34">
+        <v>189.845396065136</v>
+      </c>
+      <c r="S34">
+        <v>0.006907692864222267</v>
+      </c>
+      <c r="T34">
+        <v>0.009094905898462584</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1.183144666666667</v>
+      </c>
+      <c r="H35">
+        <v>3.549434</v>
+      </c>
+      <c r="I35">
+        <v>0.02605154480037626</v>
+      </c>
+      <c r="J35">
+        <v>0.03426724304800335</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.140388</v>
+      </c>
+      <c r="N35">
+        <v>0.280776</v>
+      </c>
+      <c r="O35">
+        <v>0.002087900582808542</v>
+      </c>
+      <c r="P35">
+        <v>0.001393278909992776</v>
+      </c>
+      <c r="Q35">
+        <v>0.166099313464</v>
+      </c>
+      <c r="R35">
+        <v>0.996595880784</v>
+      </c>
+      <c r="S35">
+        <v>5.439303557176845E-05</v>
+      </c>
+      <c r="T35">
+        <v>4.774382704237964E-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1.183144666666667</v>
+      </c>
+      <c r="H36">
+        <v>3.549434</v>
+      </c>
+      <c r="I36">
+        <v>0.02605154480037626</v>
+      </c>
+      <c r="J36">
+        <v>0.03426724304800335</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>29.21157733333333</v>
+      </c>
+      <c r="N36">
+        <v>87.634732</v>
+      </c>
+      <c r="O36">
+        <v>0.4344450333292268</v>
+      </c>
+      <c r="P36">
+        <v>0.4348648883040896</v>
+      </c>
+      <c r="Q36">
+        <v>34.56152192685423</v>
+      </c>
+      <c r="R36">
+        <v>311.053697341688</v>
+      </c>
+      <c r="S36">
+        <v>0.01131796424907731</v>
+      </c>
+      <c r="T36">
+        <v>0.01490162082055907</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1.183144666666667</v>
+      </c>
+      <c r="H37">
+        <v>3.549434</v>
+      </c>
+      <c r="I37">
+        <v>0.02605154480037626</v>
+      </c>
+      <c r="J37">
+        <v>0.03426724304800335</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>19.572738</v>
+      </c>
+      <c r="N37">
+        <v>58.718214</v>
+      </c>
+      <c r="O37">
+        <v>0.2910927648898688</v>
+      </c>
+      <c r="P37">
+        <v>0.2913740818255213</v>
+      </c>
+      <c r="Q37">
+        <v>23.157380576764</v>
+      </c>
+      <c r="R37">
+        <v>208.416425190876</v>
+      </c>
+      <c r="S37">
+        <v>0.007583416205593812</v>
+      </c>
+      <c r="T37">
+        <v>0.009984586479803954</v>
       </c>
     </row>
   </sheetData>
